--- a/Database/Data_20150722/Teacher_Course.xlsx
+++ b/Database/Data_20150722/Teacher_Course.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="210">
   <si>
     <t>Course</t>
   </si>
@@ -638,6 +638,12 @@
   </si>
   <si>
     <t>CuongDM</t>
+  </si>
+  <si>
+    <t>ASDASDASD</t>
+  </si>
+  <si>
+    <t>MNG</t>
   </si>
 </sst>
 </file>
@@ -995,10 +1001,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H154"/>
+  <dimension ref="A1:H155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="C154" sqref="C154"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A155" sqref="A155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4110,6 +4116,17 @@
         <v>207</v>
       </c>
     </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C155" t="s">
+        <v>209</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Database/Data_20150722/Teacher_Course.xlsx
+++ b/Database/Data_20150722/Teacher_Course.xlsx
@@ -600,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
